--- a/src/main/resources/template/excel/export/overShortReport2.xlsx
+++ b/src/main/resources/template/excel/export/overShortReport2.xlsx
@@ -71,18 +71,6 @@
     <t>总计：</t>
   </si>
   <si>
-    <t>$[SUM(F3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(G3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(H3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>现金长短款报表</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -120,6 +108,18 @@
   </si>
   <si>
     <t>${obj.difference}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(F3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(G3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(H3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -127,8 +127,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -238,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -262,6 +263,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -569,7 +577,7 @@
   <dimension ref="A1:DZ76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -577,15 +585,15 @@
     <col min="1" max="1" width="16.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="11" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:130" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -719,22 +727,22 @@
     </row>
     <row r="2" spans="1:130" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -869,16 +877,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:130" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -887,14 +895,14 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
+      <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:130" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/overShortReport2.xlsx
+++ b/src/main/resources/template/excel/export/overShortReport2.xlsx
@@ -71,10 +71,6 @@
     <t>总计：</t>
   </si>
   <si>
-    <t>现金长短款报表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>机构编码</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -115,11 +111,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(G3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(H3+0)]</t>
+    <t>现金长短款日报表（日汇总）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(D3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(E3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -257,12 +257,6 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -270,6 +264,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -577,7 +577,7 @@
   <dimension ref="A1:DZ76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -585,21 +585,21 @@
     <col min="1" max="1" width="16.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="9" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:130" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -727,22 +727,22 @@
     </row>
     <row r="2" spans="1:130" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -877,16 +877,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:130" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -895,14 +895,14 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>16</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:130" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/overShortReport2.xlsx
+++ b/src/main/resources/template/excel/export/overShortReport2.xlsx
@@ -31,6 +31,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="F4")</t>
@@ -44,6 +45,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="F3")</t>
@@ -107,19 +109,19 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(F3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>现金长短款日报表（日汇总）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(D3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(E3+0)]</t>
+    <t>$[SUMPRODUCT(D3:D3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(E3:E3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(F3:F3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -143,12 +145,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -156,6 +160,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -163,22 +168,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -577,7 +586,7 @@
   <dimension ref="A1:DZ76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -593,7 +602,7 @@
   <sheetData>
     <row r="1" spans="1:130" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -896,13 +905,13 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:130" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/overShortReport2.xlsx
+++ b/src/main/resources/template/excel/export/overShortReport2.xlsx
@@ -113,15 +113,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(D3:D3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(E3:E3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(F3:F3+0)]</t>
+    <t>$[SUMPRODUCT(D3:D3:D3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(E3:E3:E3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(F3:F3:F3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +586,7 @@
   <dimension ref="A1:DZ76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
